--- a/biology/Botanique/Amphicarpe_bractéolée/Amphicarpe_bractéolée.xlsx
+++ b/biology/Botanique/Amphicarpe_bractéolée/Amphicarpe_bractéolée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+          <t>Amphicarpe_bractéolée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphicarpaea bracteata
-L'Amphicarpe bractéolée (Amphicarpaea bracteata) est une espèce de plante de la famille des Fabaceae originaire du centre et de l’est de l’Amérique du Nord[1].
+L'Amphicarpe bractéolée (Amphicarpaea bracteata) est une espèce de plante de la famille des Fabaceae originaire du centre et de l’est de l’Amérique du Nord.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+          <t>Amphicarpe_bractéolée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Amphicarpe bractéolée est une plante herbacée annuelle grimpante haute de 30 à 250 cm. La tige est très volubile et très grêle. Les folioles sont largement ovées ou rhomboïdales[2],[3].
-Appareil reproducteur
-L'inflorescence est une grappe simple de fleurs pétalifères. Les fleurs, purpurines ou blanches, mesurent de 12 à 14 mm de long. Le fruit est une gousse de 20 à 30 mm de long[2],[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amphicarpe bractéolée est une plante herbacée annuelle grimpante haute de 30 à 250 cm. La tige est très volubile et très grêle. Les folioles sont largement ovées ou rhomboïdales,.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+          <t>Amphicarpe_bractéolée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Amphicarpe bractéolée affectionne les endroits ombragés et humides comme dans les sous-bois d'érablières ou taillis[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une grappe simple de fleurs pétalifères. Les fleurs, purpurines ou blanches, mesurent de 12 à 14 mm de long. Le fruit est une gousse de 20 à 30 mm de long,.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+          <t>Amphicarpe_bractéolée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,15 +595,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amphicarpe bractéolée affectionne les endroits ombragés et humides comme dans les sous-bois d'érablières ou taillis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amphicarpe_bractéolée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaires
-L'Amphicarpe bractéolée peut être utilisée comme les autres légumineuses.
-Horticole
-L'Amphicarpe bractéolée est utilisé comme couvre-sol ornemental.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amphicarpe bractéolée peut être utilisée comme les autres légumineuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amphicarpe_bractéolée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphicarpe_bract%C3%A9ol%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Horticole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amphicarpe bractéolée est utilisé comme couvre-sol ornemental.
 </t>
         </is>
       </c>
